--- a/xlsx/高速公路_intext.xlsx
+++ b/xlsx/高速公路_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
   <si>
     <t>高速公路</t>
   </si>
@@ -26,34 +26,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_高速公路</t>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_高速公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%96%E7%92%B0%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>倫敦外環高速公路</t>
+    <t>伦敦外环高速公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%90%8E%E5%8D%80</t>
   </si>
   <si>
-    <t>皇后區</t>
+    <t>皇后区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%80%9F</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/A8%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF_(%E7%BE%A9%E5%A4%A7%E5%88%A9)</t>
   </si>
   <si>
-    <t>A8高速公路 (義大利)</t>
+    <t>A8高速公路 (义大利)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%8F%E6%96%AF%E5%85%AC%E8%B7%AF</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%9A%86</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%B8%A5%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>麥帥公路</t>
+    <t>麦帅公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AF%E9%96%80%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>屯門公路</t>
+    <t>屯门公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%95%8C%E7%92%B0%E8%BF%B4%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>新界環迴公路</t>
+    <t>新界环回公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%B1%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
@@ -137,31 +137,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%82%A1%E6%A5%8A%E6%A2%85%E9%AB%98%E6%9E%B6%E6%A9%8B</t>
   </si>
   <si>
-    <t>五股楊梅高架橋</t>
+    <t>五股杨梅高架桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%90%E6%AD%A2%E4%BA%94%E8%82%A1%E9%AB%98%E6%9E%B6%E6%A9%8B</t>
   </si>
   <si>
-    <t>汐止五股高架橋</t>
+    <t>汐止五股高架桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E9%98%BF%E7%91%9F%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>麥克阿瑟公路</t>
+    <t>麦克阿瑟公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF%E4%BA%A4%E9%80%9A%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>道路交通標誌</t>
+    <t>道路交通标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%A9%8B</t>
   </si>
   <si>
-    <t>天橋</t>
+    <t>天桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -173,15 +173,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE</t>
   </si>
   <si>
-    <t>台湾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
   </si>
   <si>
@@ -209,19 +206,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -239,31 +236,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2</t>
   </si>
   <si>
-    <t>綠色</t>
+    <t>绿色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -281,31 +278,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%89%B2</t>
   </si>
   <si>
-    <t>藍色</t>
+    <t>蓝色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%A5%AF%E7%B7%9A</t>
   </si>
   <si>
-    <t>無襯線</t>
+    <t>无衬线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>黑體字</t>
+    <t>黑体字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Helvetica</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>字體</t>
+    <t>字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FHWA</t>
@@ -329,19 +326,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%AF%E7%B7%9A%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>襯線字體</t>
+    <t>衬线字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>白體字</t>
+    <t>白体字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E9%AB%94</t>
   </si>
   <si>
-    <t>宋體</t>
+    <t>宋体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E5%BC%80%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%9D%E9%9B%A2</t>
   </si>
   <si>
-    <t>距離</t>
+    <t>距离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B0%BA</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E5%8D%80_(%E5%85%AC%E8%B7%AF)</t>
   </si>
   <si>
-    <t>服務區 (公路)</t>
+    <t>服务区 (公路)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%81%93</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>網絡</t>
+    <t>网络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%AE%B5</t>
@@ -413,9 +410,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%80%9F</t>
   </si>
   <si>
-    <t>時速</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%98%E9%99%B5</t>
   </si>
   <si>
@@ -437,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%99%82</t>
   </si>
   <si>
-    <t>小時</t>
+    <t>小时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E9%81%93%E8%B7%AF%E4%BA%A4%E9%80%9A%E5%AE%89%E5%85%A8%E6%B3%95</t>
   </si>
   <si>
-    <t>中華人民共和國道路交通安全法</t>
+    <t>中华人民共和国道路交通安全法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%AC%E5%8F%B0%E6%B8%A9%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
@@ -509,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%A7</t>
   </si>
   <si>
-    <t>霧</t>
+    <t>雾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LED</t>
@@ -521,9 +515,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
   </si>
   <si>
-    <t>比利时</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
   </si>
   <si>
@@ -539,43 +530,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E9%81%93%E8%B7%AF%E4%BA%A4%E9%80%9A%E5%AE%89%E5%85%A8%E6%B3%95</t>
   </si>
   <si>
-    <t>中华人民共和国道路交通安全法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%AB%E5%87%86%E9%A7%95%E9%A7%9B%E5%9F%B7%E7%85%A7</t>
   </si>
   <si>
-    <t>暫准駕駛執照</t>
+    <t>暂准驾驶执照</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%9E%B6%E6%A9%8B</t>
   </si>
   <si>
-    <t>高架橋</t>
+    <t>高架桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%AB%94%E4%BA%A4%E5%8F%89</t>
   </si>
   <si>
-    <t>立體交叉</t>
+    <t>立体交叉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%86%E8%BB%8A</t>
   </si>
   <si>
-    <t>飆車</t>
+    <t>飙车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%80%E8%B5%B0%E5%BB%8A</t>
   </si>
   <si>
-    <t>東區走廊</t>
+    <t>东区走廊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%9C%97%E5%85%AC%E8%B7%AF</t>
@@ -593,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E5%B6%BC%E5%B1%B1%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>北大嶼山公路</t>
+    <t>北大屿山公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E8%AE%AE%E9%80%9F%E9%99%90</t>
@@ -611,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E9%81%93</t>
   </si>
   <si>
-    <t>車道</t>
+    <t>车道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -635,9 +620,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
@@ -647,19 +629,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E4%B9%98%E8%BC%89%E8%BB%8A%E9%81%93</t>
   </si>
   <si>
-    <t>高乘載車道</t>
+    <t>高乘载车道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%B3%E8%B8%8F%E8%BB%8A</t>
   </si>
   <si>
-    <t>腳踏車</t>
+    <t>脚踏车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%99%E6%B2%B3%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
@@ -677,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>軍用機場</t>
+    <t>军用机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B0%E5%8C%96%E5%B8%82</t>
@@ -689,25 +671,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E6%9E%97%E9%8E%AE</t>
   </si>
   <si>
-    <t>員林鎮</t>
+    <t>员林镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%BE%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>仁德區</t>
+    <t>仁德区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%A1%E5%B1%B1%E5%8D%80</t>
   </si>
   <si>
-    <t>岡山區</t>
+    <t>冈山区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E5%B0%88%E7%B7%9A</t>
   </si>
   <si>
-    <t>巴士專線</t>
+    <t>巴士专线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3</t>
@@ -719,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>北愛爾蘭</t>
+    <t>北爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%90%E5%9D%9D%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
@@ -731,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>蒙特利爾</t>
+    <t>蒙特利尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
@@ -743,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E6%9C%BA%E5%9C%BA%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
@@ -767,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>中華民國國道</t>
+    <t>中华民国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
@@ -779,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%B9%B9%E7%B7%9A%E7%B7%A8%E8%99%9F%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>香港幹線編號系統</t>
+    <t>香港干线编号系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
@@ -791,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>德國高速公路</t>
+    <t>德国高速公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Arial</t>
@@ -815,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%B7%AF</t>
@@ -845,13 +827,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF%E9%9B%BB%E5%AD%90%E6%94%B6%E8%B2%BB%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>台灣高速公路電子收費系統</t>
+    <t>台湾高速公路电子收费系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E8%BB%8A%E8%A1%8C%E9%A7%9B%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF%E8%A6%8F%E5%AE%9A</t>
   </si>
   <si>
-    <t>摩托車行駛高速公路規定</t>
+    <t>摩托车行驶高速公路规定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
@@ -863,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -875,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2006,7 +1988,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
         <v>7</v>
@@ -2032,10 +2014,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>5</v>
@@ -2061,10 +2043,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -2090,10 +2072,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -2119,10 +2101,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2148,10 +2130,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2177,10 +2159,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2206,10 +2188,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2235,10 +2217,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2264,10 +2246,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2293,10 +2275,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2322,10 +2304,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2351,10 +2333,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2380,10 +2362,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2409,10 +2391,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2438,10 +2420,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2467,10 +2449,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2496,10 +2478,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2525,10 +2507,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2554,10 +2536,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2583,10 +2565,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2612,10 +2594,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>11</v>
@@ -2641,10 +2623,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2670,10 +2652,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
@@ -2699,10 +2681,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2728,10 +2710,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2757,10 +2739,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2786,10 +2768,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2815,10 +2797,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2844,10 +2826,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>8</v>
@@ -2873,10 +2855,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>9</v>
@@ -2902,10 +2884,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>10</v>
@@ -2931,10 +2913,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -2960,10 +2942,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -2989,10 +2971,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3018,10 +3000,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3047,10 +3029,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3076,10 +3058,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3105,10 +3087,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>22</v>
@@ -3134,10 +3116,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -3163,10 +3145,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3192,10 +3174,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3221,10 +3203,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3250,10 +3232,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3279,10 +3261,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3308,10 +3290,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3337,10 +3319,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3366,10 +3348,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -3395,10 +3377,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3424,10 +3406,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>6</v>
@@ -3453,10 +3435,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3482,10 +3464,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3511,10 +3493,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3540,10 +3522,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3569,10 +3551,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
@@ -3598,10 +3580,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3627,10 +3609,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3656,10 +3638,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3685,10 +3667,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3772,10 +3754,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3801,10 +3783,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3830,10 +3812,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3859,10 +3841,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -3888,10 +3870,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -3917,10 +3899,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3946,10 +3928,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -3975,10 +3957,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4004,10 +3986,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4033,10 +4015,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4062,10 +4044,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4091,10 +4073,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4120,10 +4102,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4149,10 +4131,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>20</v>
@@ -4178,10 +4160,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>7</v>
@@ -4207,10 +4189,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4236,10 +4218,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4265,10 +4247,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4294,10 +4276,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4323,10 +4305,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4352,10 +4334,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F108" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4381,10 +4363,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -4410,10 +4392,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4439,10 +4421,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4468,10 +4450,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4497,10 +4479,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4526,10 +4508,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4555,10 +4537,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4584,10 +4566,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4613,10 +4595,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4642,10 +4624,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4671,10 +4653,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4700,10 +4682,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4729,10 +4711,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4758,10 +4740,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4787,10 +4769,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4816,10 +4798,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -4845,10 +4827,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F125" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -4874,10 +4856,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -4903,10 +4885,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -4932,10 +4914,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -4961,10 +4943,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G129" t="n">
         <v>8</v>
@@ -4990,10 +4972,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5019,10 +5001,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5048,10 +5030,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5077,10 +5059,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5106,10 +5088,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5135,10 +5117,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5164,10 +5146,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5193,10 +5175,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5222,10 +5204,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5251,10 +5233,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>127</v>
@@ -5280,10 +5262,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5309,10 +5291,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>21</v>
@@ -5338,10 +5320,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5367,10 +5349,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5396,10 +5378,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5425,10 +5407,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5454,10 +5436,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -5483,10 +5465,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5512,10 +5494,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5541,10 +5523,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
